--- a/srcript/reg_tab/csr_excel/register/asic/ingress_mirror_csr.xlsx
+++ b/srcript/reg_tab/csr_excel/register/asic/ingress_mirror_csr.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ingress_mirror" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -398,10 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P0_IM_ADDR_PREFIX，
-P1_IM_ADDR_PREFIX</t>
-  </si>
-  <si>
     <t>IM_MTU_EN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,6 +446,10 @@
   <si>
     <t>ECO预留寄存器</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0_IM_ADDR_PREFIX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -621,50 +621,50 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -966,11 +966,11 @@
   </sheetPr>
   <dimension ref="A2:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="22.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
@@ -982,12 +982,12 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="27">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1023,13 +1023,13 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1041,7 +1041,7 @@
       <c r="F4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="25" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -1049,9 +1049,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A5" s="13"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="13"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="7" t="s">
         <v>56</v>
       </c>
@@ -1061,15 +1061,15 @@
       <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A6" s="13"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="13"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="7" t="s">
         <v>41</v>
       </c>
@@ -1079,15 +1079,15 @@
       <c r="F6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A7" s="13"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="13"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="7" t="s">
         <v>35</v>
       </c>
@@ -1097,19 +1097,19 @@
       <c r="F7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1121,7 +1121,7 @@
       <c r="F8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="25" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -1129,9 +1129,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A9" s="13"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="7" t="s">
         <v>60</v>
       </c>
@@ -1141,15 +1141,15 @@
       <c r="F9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A10" s="13"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="7" t="s">
         <v>42</v>
       </c>
@@ -1159,15 +1159,15 @@
       <c r="F10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A11" s="13"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="7" t="s">
         <v>36</v>
       </c>
@@ -1177,19 +1177,19 @@
       <c r="F11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1201,7 +1201,7 @@
       <c r="F12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="25" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -1209,9 +1209,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A13" s="13"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="7" t="s">
         <v>61</v>
       </c>
@@ -1221,15 +1221,15 @@
       <c r="F13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A14" s="13"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="7" t="s">
         <v>43</v>
       </c>
@@ -1239,15 +1239,15 @@
       <c r="F14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A15" s="13"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="7" t="s">
         <v>37</v>
       </c>
@@ -1257,19 +1257,19 @@
       <c r="F15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1281,7 +1281,7 @@
       <c r="F16" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="25" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -1289,9 +1289,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A17" s="13"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="7" t="s">
         <v>66</v>
       </c>
@@ -1301,15 +1301,15 @@
       <c r="F17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A18" s="13"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="7" t="s">
         <v>65</v>
       </c>
@@ -1319,15 +1319,15 @@
       <c r="F18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A19" s="13"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="7" t="s">
         <v>62</v>
       </c>
@@ -1337,15 +1337,15 @@
       <c r="F19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A20" s="13"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="7" t="s">
         <v>44</v>
       </c>
@@ -1355,15 +1355,15 @@
       <c r="F20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A21" s="13"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="7" t="s">
         <v>38</v>
       </c>
@@ -1373,19 +1373,19 @@
       <c r="F21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1397,7 +1397,7 @@
       <c r="F22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="25" t="s">
         <v>26</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -1405,9 +1405,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A23" s="13"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="7" t="s">
         <v>74</v>
       </c>
@@ -1417,15 +1417,15 @@
       <c r="F23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A24" s="13"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="7" t="s">
         <v>73</v>
       </c>
@@ -1435,15 +1435,15 @@
       <c r="F24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A25" s="13"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="7" t="s">
         <v>63</v>
       </c>
@@ -1453,15 +1453,15 @@
       <c r="F25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A26" s="13"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="7" t="s">
         <v>45</v>
       </c>
@@ -1471,15 +1471,15 @@
       <c r="F26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A27" s="13"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="7" t="s">
         <v>39</v>
       </c>
@@ -1489,19 +1489,19 @@
       <c r="F27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -1513,7 +1513,7 @@
       <c r="F28" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="25" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="7" t="s">
@@ -1521,9 +1521,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A29" s="13"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="7" t="s">
         <v>71</v>
       </c>
@@ -1533,15 +1533,15 @@
       <c r="F29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="13"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A30" s="13"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="13"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="7" t="s">
         <v>72</v>
       </c>
@@ -1551,15 +1551,15 @@
       <c r="F30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="13"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A31" s="13"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="10"/>
-      <c r="C31" s="13"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="7" t="s">
         <v>64</v>
       </c>
@@ -1569,15 +1569,15 @@
       <c r="F31" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="13"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A32" s="13"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="7" t="s">
         <v>46</v>
       </c>
@@ -1587,15 +1587,15 @@
       <c r="F32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="13"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="40.5" outlineLevel="1">
-      <c r="A33" s="13"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="7" t="s">
         <v>40</v>
       </c>
@@ -1605,19 +1605,19 @@
       <c r="F33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="13"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -1637,9 +1637,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="40.5">
-      <c r="A35" s="15"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="15"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="9" t="s">
         <v>55</v>
       </c>
@@ -1657,13 +1657,13 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="14" t="s">
-        <v>95</v>
+      <c r="A36" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="9" t="s">
@@ -1683,11 +1683,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="40.5">
-      <c r="A37" s="15"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="15"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>14</v>
@@ -1699,55 +1699,63 @@
         <v>12</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="23" customFormat="1" ht="13.5" outlineLevel="1">
-      <c r="A38" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="17" customFormat="1" outlineLevel="1">
+      <c r="A38" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="C38" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="D38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="19" t="s">
+      <c r="F38" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>103</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="23" customFormat="1" ht="13.5">
-      <c r="A39" s="16"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="24" t="s">
+    <row r="39" spans="1:8" s="17" customFormat="1">
+      <c r="A39" s="20"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="F39" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="20" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="G8:G11"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="G38:G39"/>
     <mergeCell ref="A36:A37"/>
@@ -1764,14 +1772,6 @@
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="C28:C33"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="G8:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1811,7 +1811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
